--- a/Emails.xlsx
+++ b/Emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaial\Downloads\CSIM_CW2_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B670B3A3-9879-4CE0-B212-2F0D698D682C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2D0A4D-9E0B-43A2-B2BB-92259A120C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{9D5A7E74-39AC-4532-A749-AD8D8E4DAFE2}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Emails!$A$1:$J$39</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Emails!$A$1:$J$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="115">
   <si>
     <t>Source Name</t>
   </si>
@@ -483,7 +483,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,16 +491,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -508,19 +534,1007 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="44">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -584,24 +1598,90 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FDC04B6-7950-44ED-A00F-0239DBEA15B9}" name="Emails" displayName="Emails" ref="A1:J39" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J39" xr:uid="{0FDC04B6-7950-44ED-A00F-0239DBEA15B9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J39">
-    <sortCondition descending="1" ref="E1:E39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FDC04B6-7950-44ED-A00F-0239DBEA15B9}" name="Emails" displayName="Emails" ref="A1:J28" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J28" xr:uid="{0FDC04B6-7950-44ED-A00F-0239DBEA15B9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J28">
+    <sortCondition descending="1" ref="E1:E28"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{1F4E68CE-D490-46B8-A8BE-2E8E3F0A330C}" uniqueName="1" name="Source Name" queryTableFieldId="1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{3E977D62-13D9-4A47-9BB6-C56E4F3F6274}" uniqueName="2" name="E-Mail From" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{AA07B1D3-86A5-4F83-BB33-D10D533E0779}" uniqueName="3" name="E-Mail To" queryTableFieldId="3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{68D695DA-1427-43FF-A761-6DFB1015BB69}" uniqueName="4" name="Subject" queryTableFieldId="4" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{2C65C96C-4BA4-4FFC-AD4E-5244BBAF5366}" uniqueName="5" name="Date Received" queryTableFieldId="5" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{953CB52B-976F-4AF8-B99A-67A7BC7A438D}" uniqueName="6" name="Message (Plaintext)" queryTableFieldId="6" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{B348538E-EAF0-4EDF-AEB9-EC315996BC1E}" uniqueName="7" name="Message ID" queryTableFieldId="7" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{62E6210C-D8D9-4D9B-AD9A-893E21D48CAD}" uniqueName="8" name="Path" queryTableFieldId="8" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{190BFB72-B5D0-4D6D-BC67-CC71CFC79BAF}" uniqueName="9" name="Thread ID" queryTableFieldId="9" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{7D0D68C9-29E0-447C-8811-DDD4304B21F4}" uniqueName="10" name="Data Source" queryTableFieldId="10" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1F4E68CE-D490-46B8-A8BE-2E8E3F0A330C}" uniqueName="1" name="Source Name" queryTableFieldId="1" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{3E977D62-13D9-4A47-9BB6-C56E4F3F6274}" uniqueName="2" name="E-Mail From" queryTableFieldId="2" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{AA07B1D3-86A5-4F83-BB33-D10D533E0779}" uniqueName="3" name="E-Mail To" queryTableFieldId="3" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{68D695DA-1427-43FF-A761-6DFB1015BB69}" uniqueName="4" name="Subject" queryTableFieldId="4" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{2C65C96C-4BA4-4FFC-AD4E-5244BBAF5366}" uniqueName="5" name="Date Received" queryTableFieldId="5" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{953CB52B-976F-4AF8-B99A-67A7BC7A438D}" uniqueName="6" name="Message (Plaintext)" queryTableFieldId="6" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{B348538E-EAF0-4EDF-AEB9-EC315996BC1E}" uniqueName="7" name="Message ID" queryTableFieldId="7" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{62E6210C-D8D9-4D9B-AD9A-893E21D48CAD}" uniqueName="8" name="Path" queryTableFieldId="8" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{190BFB72-B5D0-4D6D-BC67-CC71CFC79BAF}" uniqueName="9" name="Thread ID" queryTableFieldId="9" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{7D0D68C9-29E0-447C-8811-DDD4304B21F4}" uniqueName="10" name="Data Source" queryTableFieldId="10" dataDxfId="34"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6EE8014F-7386-4922-BCCE-53CDA585D17C}" name="Table2" displayName="Table2" ref="A33:J36" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="32" tableBorderDxfId="33" totalsRowBorderDxfId="31">
+  <autoFilter ref="A33:J36" xr:uid="{6EE8014F-7386-4922-BCCE-53CDA585D17C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:J36">
+    <sortCondition descending="1" ref="E33:E36"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{AEDFB1CA-EA7B-41C4-92D2-891442D36BD0}" name="Source Name"/>
+    <tableColumn id="2" xr3:uid="{67530307-E244-4214-821E-0F7CD16D72AF}" name="E-Mail From"/>
+    <tableColumn id="3" xr3:uid="{22605A3D-D274-44C5-BE25-CBA8480923F0}" name="E-Mail To"/>
+    <tableColumn id="4" xr3:uid="{3C29165D-4103-47DE-B16D-6A5AE82F9259}" name="Subject"/>
+    <tableColumn id="5" xr3:uid="{47D224B8-469D-436E-B16A-F57BA7996083}" name="Date Received"/>
+    <tableColumn id="6" xr3:uid="{B051C149-AEFD-4C59-AC32-8A67C58E1788}" name="Message (Plaintext)"/>
+    <tableColumn id="7" xr3:uid="{3335BDF2-89F7-41E0-B881-10EFCEFC8CA4}" name="Message ID"/>
+    <tableColumn id="8" xr3:uid="{DB8417AE-8325-4615-A71D-C16831FD289D}" name="Path"/>
+    <tableColumn id="9" xr3:uid="{05A8A494-5ED4-4B0F-B6C0-60402E4E7472}" name="Thread ID"/>
+    <tableColumn id="10" xr3:uid="{78B75089-CA84-4C1C-8659-4C39EAC43C89}" name="Data Source"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93DAA3A3-C1CE-45AD-9540-1526749BA4F8}" name="Table3" displayName="Table3" ref="A41:J45" totalsRowShown="0" headerRowDxfId="15" dataDxfId="16" headerRowBorderDxfId="28" tableBorderDxfId="29" totalsRowBorderDxfId="27">
+  <autoFilter ref="A41:J45" xr:uid="{93DAA3A3-C1CE-45AD-9540-1526749BA4F8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A42:J45">
+    <sortCondition descending="1" ref="E41:E45"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{70EF728C-D1EC-4F8D-93F1-ECE23EDFEE63}" name="Source Name" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{100B8596-FB62-424B-A642-4D32AAAA451F}" name="E-Mail From" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{537D2E92-9755-4B49-92FF-1F8ABCE80129}" name="E-Mail To" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{AC087302-867E-4ED0-8B57-7E73BC32A021}" name="Subject" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{0876D07C-455C-4F1A-A182-3B9BA4A884B7}" name="Date Received" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{F6C53C15-45C7-4705-9A1D-50C286C9BE93}" name="Message (Plaintext)" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{1E0AB822-030C-4081-8944-118C85E67E82}" name="Message ID" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{CEBC4EDF-43B2-408B-B2D9-4CFB6F5FCD47}" name="Path" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{58D6DE0F-C6DF-46D3-944C-5D755CC3BAC0}" name="Thread ID" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{77C460B3-3C6B-41F6-A653-D7F9A7C8B701}" name="Data Source" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B88FE0B2-CF22-4C02-9BFD-C49561AC6DB2}" name="Table4" displayName="Table4" ref="A50:J54" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="A50:J54" xr:uid="{B88FE0B2-CF22-4C02-9BFD-C49561AC6DB2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A51:J54">
+    <sortCondition descending="1" ref="E50:E54"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{32B7619A-A148-4B6B-89E7-0BC028D88EB6}" name="Source Name" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{7EBE7883-CD7F-4149-8258-BC8AF6CB1AA6}" name="E-Mail From" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{02DEFF11-7AF4-4A2B-A508-77275E2B9FF5}" name="E-Mail To" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{0A8EFB7D-B52A-478B-9402-07C4E9690D9B}" name="Subject" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{DFD858DF-65C4-4BF3-9418-269803098EC9}" name="Date Received" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{B51BC9B0-FD02-4D81-A1FD-579F39EBCC68}" name="Message (Plaintext)" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{78BD88C6-2120-424C-9AB7-37FC474B91C9}" name="Message ID" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{AD4C1C57-31E6-4726-86E1-61FDD7A6F734}" name="Path" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{776BCC24-4132-473C-AD5A-CF44BACF418F}" name="Thread ID" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{59FD4883-7535-42A3-8421-E61240B47668}" name="Data Source" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -922,10 +2002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A575529D-5450-427D-AD6B-47F3E433D62D}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,7 +2013,7 @@
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="131" customWidth="1"/>
     <col min="7" max="7" width="55.42578125" customWidth="1"/>
@@ -976,31 +2056,31 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2">
-        <v>44991.289884259262</v>
+        <v>44991.253912037035</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>18</v>
@@ -1017,13 +2097,13 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2">
-        <v>44991.253912037035</v>
+        <v>44991.253148148149</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
@@ -1032,7 +2112,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
@@ -1049,13 +2129,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2">
-        <v>44991.253148148149</v>
+        <v>44990.020509259259</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>15</v>
@@ -1064,7 +2144,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
@@ -1081,13 +2161,13 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2">
-        <v>44990.020509259259</v>
+        <v>44985.547511574077</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>15</v>
@@ -1096,7 +2176,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
@@ -1113,13 +2193,13 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2">
-        <v>44985.547511574077</v>
+        <v>44985.545219907406</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>15</v>
@@ -1128,7 +2208,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
@@ -1145,13 +2225,13 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2">
-        <v>44985.545219907406</v>
+        <v>44985.544351851851</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>15</v>
@@ -1160,7 +2240,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
@@ -1171,19 +2251,19 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2">
-        <v>44985.544351851851</v>
+        <v>44981.607106481482</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>15</v>
@@ -1192,7 +2272,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>18</v>
@@ -1200,31 +2280,31 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2">
-        <v>44985.544305555559</v>
+        <v>44981.606365740743</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>18</v>
@@ -1235,19 +2315,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2">
-        <v>44981.607106481482</v>
+        <v>44981.575381944444</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>15</v>
@@ -1256,7 +2336,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>18</v>
@@ -1267,19 +2347,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2">
-        <v>44981.606365740743</v>
+        <v>44981.566307870373</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>15</v>
@@ -1288,7 +2368,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>18</v>
@@ -1299,19 +2379,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2">
-        <v>44981.575381944444</v>
+        <v>44980.443032407406</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>15</v>
@@ -1320,7 +2400,7 @@
         <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>18</v>
@@ -1340,10 +2420,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="2">
-        <v>44981.566307870373</v>
+        <v>44980.441354166665</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>15</v>
@@ -1363,19 +2443,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2">
-        <v>44980.443032407406</v>
+        <v>44980.440196759257</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>15</v>
@@ -1384,7 +2464,7 @@
         <v>16</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>18</v>
@@ -1404,10 +2484,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="2">
-        <v>44980.441354166665</v>
+        <v>44980.438622685186</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>15</v>
@@ -1427,19 +2507,19 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2">
-        <v>44980.440196759257</v>
+        <v>44976.335706018515</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>15</v>
@@ -1448,7 +2528,7 @@
         <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>18</v>
@@ -1459,19 +2539,19 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2">
-        <v>44980.438622685186</v>
+        <v>44975.444953703707</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>15</v>
@@ -1480,7 +2560,7 @@
         <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>18</v>
@@ -1491,19 +2571,19 @@
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="E18" s="2">
-        <v>44976.335706018515</v>
+        <v>44975.250798611109</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>15</v>
@@ -1512,7 +2592,7 @@
         <v>16</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>18</v>
@@ -1520,31 +2600,31 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2">
-        <v>44975.448587962965</v>
+        <v>44974.633356481485</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>18</v>
@@ -1552,31 +2632,31 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2">
-        <v>44975.446238425924</v>
+        <v>44971.874178240738</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>18</v>
@@ -1587,19 +2667,19 @@
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2">
-        <v>44975.444953703707</v>
+        <v>44971.873182870368</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>15</v>
@@ -1608,7 +2688,7 @@
         <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>18</v>
@@ -1619,19 +2699,19 @@
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2">
-        <v>44975.250798611109</v>
+        <v>44971.869814814818</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>15</v>
@@ -1640,7 +2720,7 @@
         <v>16</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>18</v>
@@ -1648,34 +2728,34 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2">
-        <v>44974.641840277778</v>
+        <v>44971.868784722225</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1689,13 +2769,13 @@
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2">
-        <v>44974.633356481485</v>
+        <v>44971.854560185187</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>15</v>
@@ -1704,7 +2784,7 @@
         <v>16</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>18</v>
@@ -1712,31 +2792,31 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2">
-        <v>44971.877164351848</v>
+        <v>44971.851458333331</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>18</v>
@@ -1747,19 +2827,19 @@
         <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E26" s="2">
-        <v>44971.874178240738</v>
+        <v>44971.851354166669</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>15</v>
@@ -1768,7 +2848,7 @@
         <v>16</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>18</v>
@@ -1779,19 +2859,19 @@
         <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E27" s="2">
-        <v>44971.873182870368</v>
+        <v>44912.393865740742</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>15</v>
@@ -1800,7 +2880,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>18</v>
@@ -1808,392 +2888,493 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="2">
+        <v>44912.393831018519</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="4">
+        <v>44991.289884259262</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="6">
+        <v>44985.544305555559</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="9">
+        <v>44974.641840277778</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B42" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="6">
+        <v>44975.448587962965</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="4">
+        <v>44975.446238425924</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D44" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E44" s="4">
+        <v>44971.877164351848</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="11">
         <v>44971.870659722219</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F45" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="G45" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I45" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="J45" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="2">
-        <v>44971.869814814818</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="D51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="4">
+        <v>44971.851458333331</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="2">
-        <v>44971.868784722225</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="D52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="4">
+        <v>44971.851354166669</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="2">
-        <v>44971.854560185187</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="D53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="4">
+        <v>44912.393865740742</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C54" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="2">
-        <v>44971.851458333331</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="2">
-        <v>44971.851458333331</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="D54" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="11">
+        <v>44912.393831018519</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="2">
-        <v>44971.851354166669</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="2">
-        <v>44971.851354166669</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="2">
-        <v>44912.393865740742</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="2">
-        <v>44912.393865740742</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="2">
-        <v>44912.393831018519</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="2">
-        <v>44912.393831018519</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I39" s="1" t="s">
+      <c r="I54" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J54" s="10" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
